--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
   <si>
     <t>Water rocketry</t>
   </si>
@@ -93,13 +93,19 @@
   </si>
   <si>
     <t>QUIZ</t>
+  </si>
+  <si>
+    <t>18th March 2017</t>
+  </si>
+  <si>
+    <t>19th March 2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +123,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -318,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -327,118 +341,119 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="18" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,153 +755,157 @@
       <c r="J4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K4" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="48"/>
     </row>
     <row r="5" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
-      <c r="E5" s="37">
+      <c r="E5" s="7">
         <v>0.375</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="7">
         <v>0.39583333333333331</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="7">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="7">
         <v>0.4375</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="7">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="7">
         <v>0.47916666666666669</v>
       </c>
-      <c r="K5" s="37">
+      <c r="K5" s="7">
         <v>0.5</v>
       </c>
-      <c r="L5" s="37">
+      <c r="L5" s="7">
         <v>0.54166666666666696</v>
       </c>
-      <c r="M5" s="37">
+      <c r="M5" s="7">
         <v>0.58333333333333404</v>
       </c>
-      <c r="N5" s="37">
+      <c r="N5" s="7">
         <v>0.625</v>
       </c>
-      <c r="O5" s="37">
+      <c r="O5" s="7">
         <v>0.66666666666666696</v>
       </c>
-      <c r="P5" s="37">
+      <c r="P5" s="7">
         <v>0.70833333333333304</v>
       </c>
     </row>
     <row r="6" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="7" t="s">
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="8"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="30"/>
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="22" t="s">
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="23"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="27"/>
     </row>
     <row r="8" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="13" t="s">
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="20"/>
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="40"/>
+      <c r="K9" s="10"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="17"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="37"/>
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="42"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="23"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="24" t="s">
+      <c r="M10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="25"/>
-      <c r="O10" s="26"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="24"/>
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="2"/>
@@ -898,235 +917,239 @@
       <c r="K11" s="5"/>
       <c r="L11" s="4"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="10"/>
-      <c r="P11" s="11"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="47"/>
     </row>
     <row r="12" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="33" t="s">
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="35"/>
+      <c r="N12" s="34"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="40"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="10"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="19" t="s">
+      <c r="M13" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="N13" s="19"/>
-      <c r="O13" s="20"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="40"/>
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="45"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="43"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="27" t="s">
+      <c r="M14" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="29"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="44"/>
     </row>
     <row r="15" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="40"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="10"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="31" t="s">
+      <c r="M15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="32"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="15"/>
     </row>
     <row r="16" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="46" t="s">
+      <c r="M16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="47"/>
+      <c r="N16" s="17"/>
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.25">
       <c r="J21" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="K21" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="48"/>
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D22" s="2"/>
-      <c r="E22" s="37">
+      <c r="E22" s="7">
         <v>0.375</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="7">
         <v>0.39583333333333331</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G22" s="7">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="7">
         <v>0.4375</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I22" s="7">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J22" s="37">
+      <c r="J22" s="7">
         <v>0.47916666666666669</v>
       </c>
-      <c r="K22" s="37">
+      <c r="K22" s="7">
         <v>0.5</v>
       </c>
-      <c r="L22" s="37">
+      <c r="L22" s="7">
         <v>0.54166666666666696</v>
       </c>
-      <c r="M22" s="37">
+      <c r="M22" s="7">
         <v>0.58333333333333404</v>
       </c>
-      <c r="N22" s="37">
+      <c r="N22" s="7">
         <v>0.625</v>
       </c>
-      <c r="O22" s="37">
+      <c r="O22" s="7">
         <v>0.66666666666666696</v>
       </c>
-      <c r="P22" s="37">
+      <c r="P22" s="7">
         <v>0.70833333333333304</v>
       </c>
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="7" t="s">
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="N23" s="7"/>
-      <c r="O23" s="8"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="30"/>
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="13" t="s">
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="N24" s="13"/>
-      <c r="O24" s="14"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="20"/>
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="17"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="40"/>
+      <c r="K25" s="10"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="16" t="s">
+      <c r="M25" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="N25" s="16"/>
-      <c r="O25" s="17"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="37"/>
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="42"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="23"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="24" t="s">
+      <c r="M26" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="N26" s="25"/>
-      <c r="O26" s="26"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="24"/>
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E27" s="2"/>
@@ -1138,115 +1161,117 @@
       <c r="K27" s="5"/>
       <c r="L27" s="4"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="9" t="s">
+      <c r="N27" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="O27" s="10"/>
-      <c r="P27" s="11"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="47"/>
     </row>
     <row r="28" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="33" t="s">
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="35"/>
+      <c r="N28" s="34"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="40"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="10"/>
       <c r="L29" s="5"/>
-      <c r="M29" s="19" t="s">
+      <c r="M29" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="N29" s="19"/>
-      <c r="O29" s="20"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="40"/>
       <c r="P29" s="2"/>
     </row>
     <row r="30" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="27" t="s">
+      <c r="H30" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="45"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="43"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="27" t="s">
+      <c r="M30" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="29"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="44"/>
     </row>
     <row r="31" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="30" t="s">
+      <c r="G31" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="40"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="10"/>
       <c r="L31" s="5"/>
-      <c r="M31" s="31" t="s">
+      <c r="M31" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="32"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="15"/>
     </row>
     <row r="32" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M32" s="46" t="s">
+      <c r="M32" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="47"/>
+      <c r="N32" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="N11:P11"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="M7:P7"/>
     <mergeCell ref="G6:J6"/>
@@ -1259,6 +1284,14 @@
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="F8:J8"/>
     <mergeCell ref="M8:O8"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="M26:O26"/>
     <mergeCell ref="E25:H25"/>
     <mergeCell ref="M25:O25"/>
     <mergeCell ref="G29:J29"/>
@@ -1267,16 +1300,6 @@
     <mergeCell ref="M30:P30"/>
     <mergeCell ref="N27:P27"/>
     <mergeCell ref="G28:K28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="N11:P11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
